--- a/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E1E72-F056-4100-B3AE-E2E6BC818D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -20,13 +19,13 @@
     <sheet name="Overall Attendance" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">November!$A$1:$K$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">October!$A$1:$K$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Overall Attendance'!$A$1:$J$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">September!$A$1:$K$66</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="171">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -426,9 +425,6 @@
     <t>22MEEP-13</t>
   </si>
   <si>
-    <t>22MEEP-14</t>
-  </si>
-  <si>
     <t>22MEEP-15</t>
   </si>
   <si>
@@ -559,9 +555,6 @@
   </si>
   <si>
     <t>Mirza Azaz Baig</t>
-  </si>
-  <si>
-    <t>Muhammad Nawaz</t>
   </si>
   <si>
     <t>October 2022</t>
@@ -570,7 +563,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -974,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,12 +1078,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,16 +1092,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,6 +1128,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1175,16 +1177,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1754,12 +1746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1770,8 +1762,9 @@
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
@@ -1780,118 +1773,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1905,7 +1898,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -1932,15 +1925,15 @@
       <c r="I10" s="34">
         <v>29</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="49"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
@@ -1948,26 +1941,16 @@
       <c r="D11" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="49"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
@@ -1975,20 +1958,14 @@
       <c r="D12" s="29">
         <v>3</v>
       </c>
-      <c r="E12" s="29">
-        <v>3</v>
-      </c>
-      <c r="F12" s="29">
-        <v>3</v>
-      </c>
-      <c r="G12" s="29">
-        <v>3</v>
-      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="30">
         <f>SUM(D12:I12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K12" s="39">
         <f>(J12/$J$12)*100</f>
@@ -1996,19 +1973,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -2018,20 +1995,22 @@
         <v>115</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="8">
-        <f>SUM(D14:I14)</f>
+        <f t="shared" ref="J14:J41" si="0">SUM(D14:I14)</f>
         <v>0</v>
       </c>
       <c r="K14" s="35">
-        <f t="shared" ref="K14:K42" si="0">(J14/$J$12)*100</f>
+        <f t="shared" ref="K14:K41" si="1">(J14/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2043,20 +2022,22 @@
         <v>116</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="19"/>
+        <v>129</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:J42" si="1">SUM(D15:I15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2068,20 +2049,22 @@
         <v>117</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2093,20 +2076,22 @@
         <v>118</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2118,20 +2103,22 @@
         <v>119</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2143,20 +2130,22 @@
         <v>120</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2168,20 +2157,22 @@
         <v>121</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2193,20 +2184,22 @@
         <v>122</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2218,20 +2211,22 @@
         <v>123</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2243,20 +2238,22 @@
         <v>124</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2268,20 +2265,22 @@
         <v>125</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2293,20 +2292,22 @@
         <v>126</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="8">
-        <f>SUM(D25:I25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="35">
-        <f>(J25/$J$12)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2314,24 +2315,26 @@
       <c r="A26" s="10">
         <v>13</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="8">
-        <f>SUM(D26:I26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="35">
-        <f>(J26/$J$12)*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2340,23 +2343,25 @@
         <v>14</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="9">
-        <f>SUM(D27:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="79">
-        <f>(J27/$J$12)*100</f>
+      <c r="J27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2370,18 +2375,20 @@
       <c r="C28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="9">
-        <f>SUM(D28:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="79">
-        <f>(J28/$J$12)*100</f>
+      <c r="J28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2392,21 +2399,23 @@
       <c r="B29" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9">
-        <f>SUM(D29:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="79">
-        <f>(J29/$J$12)*100</f>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2420,18 +2429,20 @@
       <c r="C30" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2445,18 +2456,20 @@
       <c r="C31" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2467,21 +2480,23 @@
       <c r="B32" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2492,21 +2507,23 @@
       <c r="B33" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2534,23 @@
       <c r="B34" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2543,20 +2562,22 @@
         <v>149</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2567,21 +2588,23 @@
       <c r="B36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="19"/>
+      <c r="C36" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2590,23 +2613,25 @@
         <v>24</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2618,20 +2643,22 @@
         <v>162</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2642,21 +2669,23 @@
       <c r="B39" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2667,21 +2696,23 @@
       <c r="B40" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2695,86 +2726,63 @@
       <c r="C41" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>29</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="60"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="H43" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="62"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="3"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="C1:I1"/>
@@ -2806,7 +2814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B6C6EE-F81F-4A16-ACC1-7D4F6526DDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -2831,106 +2839,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2944,7 +2952,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -2965,15 +2973,15 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="49"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
@@ -2990,11 +2998,11 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="49"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
@@ -3021,19 +3029,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -4482,16 +4490,16 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="60"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="60"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
@@ -4543,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB4AE5-1A3A-4A60-9541-F960C20935B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -4568,106 +4576,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4681,7 +4689,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -4702,15 +4710,15 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="49"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
@@ -4727,11 +4735,11 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="49"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
@@ -4758,19 +4766,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -6219,16 +6227,16 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="60"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="60"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
@@ -6280,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEE0E38-7D9C-441D-A7B2-331FA8FC39C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -6305,106 +6313,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -6418,7 +6426,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -6439,15 +6447,15 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="49"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
@@ -6464,11 +6472,11 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="49"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
@@ -6495,19 +6503,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -7956,16 +7964,16 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="60"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="60"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
@@ -8017,7 +8025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCB33B-5A86-4145-9B54-F45864A479A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
@@ -8043,93 +8051,93 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -8143,62 +8151,62 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="71" t="str">
+      <c r="C9" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="74" t="str">
         <f>August!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="74">
         <f>September!E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="74">
         <f>October!E5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="74">
         <f>November!E5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="76" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="74"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="9">
         <f>August!J12</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E11" s="9">
         <f>September!J12</f>
@@ -8214,13 +8222,13 @@
       </c>
       <c r="H11" s="21">
         <f t="shared" ref="H11:H54" si="0">SUM(D11:G11)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I11" s="41">
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -8254,11 +8262,11 @@
       </c>
       <c r="I12" s="41">
         <f t="shared" ref="I12:I54" si="1">(H12/$H$11)*100</f>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J12" s="42" t="str">
         <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8293,7 +8301,7 @@
       </c>
       <c r="I13" s="41">
         <f t="shared" si="1"/>
-        <v>23.076923076923077</v>
+        <v>30</v>
       </c>
       <c r="J13" s="42" t="str">
         <f>IF(AND(I13&gt;=75),"Eligible","Not Eligible")</f>
@@ -8332,11 +8340,11 @@
       </c>
       <c r="I14" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J14" s="42" t="str">
         <f t="shared" ref="J14:J54" si="2">IF(AND(I14&gt;=75),"Eligible","Not Eligible")</f>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8410,7 +8418,7 @@
       </c>
       <c r="I16" s="41">
         <f t="shared" si="1"/>
-        <v>23.076923076923077</v>
+        <v>30</v>
       </c>
       <c r="J16" s="42" t="str">
         <f t="shared" si="2"/>
@@ -8449,11 +8457,11 @@
       </c>
       <c r="I17" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J17" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8527,11 +8535,11 @@
       </c>
       <c r="I19" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J19" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,7 +8574,7 @@
       </c>
       <c r="I20" s="41">
         <f t="shared" si="1"/>
-        <v>23.076923076923077</v>
+        <v>30</v>
       </c>
       <c r="J20" s="42" t="str">
         <f t="shared" si="2"/>
@@ -8605,11 +8613,11 @@
       </c>
       <c r="I21" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J21" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8644,11 +8652,11 @@
       </c>
       <c r="I22" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J22" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8662,7 +8670,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="19">
-        <f>August!J26</f>
+        <f>August!J25</f>
         <v>0</v>
       </c>
       <c r="E23" s="19">
@@ -8683,7 +8691,7 @@
       </c>
       <c r="I23" s="41">
         <f t="shared" si="1"/>
-        <v>46.153846153846153</v>
+        <v>60</v>
       </c>
       <c r="J23" s="42" t="str">
         <f t="shared" si="2"/>
@@ -9013,7 +9021,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="19">
-        <f>August!J30</f>
+        <f>August!J29</f>
         <v>0</v>
       </c>
       <c r="E32" s="19">
@@ -9034,11 +9042,11 @@
       </c>
       <c r="I32" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J32" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9052,7 +9060,7 @@
         <v>54</v>
       </c>
       <c r="D33" s="19">
-        <f>August!J31</f>
+        <f>August!J30</f>
         <v>0</v>
       </c>
       <c r="E33" s="19">
@@ -9073,7 +9081,7 @@
       </c>
       <c r="I33" s="41">
         <f t="shared" si="1"/>
-        <v>46.153846153846153</v>
+        <v>60</v>
       </c>
       <c r="J33" s="42" t="str">
         <f t="shared" si="2"/>
@@ -9091,7 +9099,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="19">
-        <f>August!J32</f>
+        <f>August!J31</f>
         <v>0</v>
       </c>
       <c r="E34" s="19">
@@ -9130,7 +9138,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="19">
-        <f>August!J33</f>
+        <f>August!J32</f>
         <v>0</v>
       </c>
       <c r="E35" s="19">
@@ -9151,11 +9159,11 @@
       </c>
       <c r="I35" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J35" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9169,7 +9177,7 @@
         <v>60</v>
       </c>
       <c r="D36" s="19">
-        <f>August!J34</f>
+        <f>August!J33</f>
         <v>0</v>
       </c>
       <c r="E36" s="19">
@@ -9190,11 +9198,11 @@
       </c>
       <c r="I36" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J36" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,7 +9216,7 @@
         <v>62</v>
       </c>
       <c r="D37" s="19">
-        <f>August!J35</f>
+        <f>August!J34</f>
         <v>0</v>
       </c>
       <c r="E37" s="19">
@@ -9229,11 +9237,11 @@
       </c>
       <c r="I37" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J37" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9247,7 +9255,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="19">
-        <f>August!J36</f>
+        <f>August!J35</f>
         <v>0</v>
       </c>
       <c r="E38" s="19">
@@ -9268,7 +9276,7 @@
       </c>
       <c r="I38" s="41">
         <f t="shared" si="1"/>
-        <v>46.153846153846153</v>
+        <v>60</v>
       </c>
       <c r="J38" s="42" t="str">
         <f t="shared" si="2"/>
@@ -9286,7 +9294,7 @@
         <v>66</v>
       </c>
       <c r="D39" s="19">
-        <f>August!J37</f>
+        <f>August!J36</f>
         <v>0</v>
       </c>
       <c r="E39" s="19">
@@ -9307,11 +9315,11 @@
       </c>
       <c r="I39" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J39" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9325,7 +9333,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="19">
-        <f>August!J38</f>
+        <f>August!J37</f>
         <v>0</v>
       </c>
       <c r="E40" s="19">
@@ -9346,11 +9354,11 @@
       </c>
       <c r="I40" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J40" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9364,7 +9372,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="19">
-        <f>August!J39</f>
+        <f>August!J38</f>
         <v>0</v>
       </c>
       <c r="E41" s="19">
@@ -9385,11 +9393,11 @@
       </c>
       <c r="I41" s="41">
         <f t="shared" si="1"/>
-        <v>69.230769230769226</v>
+        <v>90</v>
       </c>
       <c r="J41" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9403,7 +9411,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="19">
-        <f>August!J40</f>
+        <f>August!J39</f>
         <v>0</v>
       </c>
       <c r="E42" s="19">
@@ -9424,7 +9432,7 @@
       </c>
       <c r="I42" s="41">
         <f t="shared" si="1"/>
-        <v>46.153846153846153</v>
+        <v>60</v>
       </c>
       <c r="J42" s="42" t="str">
         <f t="shared" si="2"/>
@@ -9442,7 +9450,7 @@
         <v>73</v>
       </c>
       <c r="D43" s="19">
-        <f>August!J41</f>
+        <f>August!J40</f>
         <v>0</v>
       </c>
       <c r="E43" s="19">
@@ -9463,7 +9471,7 @@
       </c>
       <c r="I43" s="41">
         <f t="shared" si="1"/>
-        <v>46.153846153846153</v>
+        <v>60</v>
       </c>
       <c r="J43" s="42" t="str">
         <f t="shared" si="2"/>
@@ -9481,7 +9489,7 @@
         <v>75</v>
       </c>
       <c r="D44" s="19">
-        <f>August!J42</f>
+        <f>August!J41</f>
         <v>0</v>
       </c>
       <c r="E44" s="19">
@@ -10009,15 +10017,15 @@
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="62"/>
+      <c r="D64" s="60"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="72" t="s">
+      <c r="G64" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="72"/>
+      <c r="H64" s="75"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>

--- a/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D0848-0548-4A10-9928-4703B18EBEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="October" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -277,16 +279,22 @@
   </si>
   <si>
     <t>October 2022</t>
+  </si>
+  <si>
+    <t>22MEEP-14</t>
+  </si>
+  <si>
+    <t>FEE NOT SUBMITTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -366,8 +374,26 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +709,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,12 +1059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1311,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1274,12 +1319,12 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="8">
-        <f t="shared" ref="J14:J41" si="0">SUM(D14:I14)</f>
-        <v>0</v>
+        <f t="shared" ref="J14:J42" si="0">SUM(D14:I14)</f>
+        <v>3</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" ref="K14:K41" si="1">(J14/$J$12)*100</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K42" si="1">(J14/$J$12)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,7 +1392,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1356,11 +1401,11 @@
       <c r="I17" s="17"/>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,7 +1446,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1410,11 +1455,11 @@
       <c r="I19" s="17"/>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -1464,11 +1509,11 @@
       <c r="I21" s="17"/>
       <c r="J21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -1491,11 +1536,11 @@
       <c r="I22" s="17"/>
       <c r="J22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1518,11 +1563,11 @@
       <c r="I23" s="17"/>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1545,65 +1590,65 @@
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="45">
         <v>12</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B25" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="47">
+        <v>3</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48">
+        <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
+        <v>3</v>
+      </c>
+      <c r="K25" s="49">
+        <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>13</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>49</v>
+      <c r="B26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,13 +1656,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D27" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1626,11 +1671,11 @@
       <c r="I27" s="10"/>
       <c r="J27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1638,13 +1683,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -1653,11 +1698,11 @@
       <c r="I28" s="10"/>
       <c r="J28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,19 +1710,19 @@
         <v>16</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1692,13 +1737,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -1707,11 +1752,11 @@
       <c r="I30" s="17"/>
       <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,13 +1764,13 @@
         <v>18</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1734,11 +1779,11 @@
       <c r="I31" s="17"/>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,13 +1791,13 @@
         <v>19</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -1761,11 +1806,11 @@
       <c r="I32" s="17"/>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,13 +1818,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D33" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -1788,11 +1833,11 @@
       <c r="I33" s="17"/>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,13 +1845,13 @@
         <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D34" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -1815,11 +1860,11 @@
       <c r="I34" s="17"/>
       <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1827,13 +1872,13 @@
         <v>22</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D35" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1842,11 +1887,11 @@
       <c r="I35" s="17"/>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,13 +1899,13 @@
         <v>23</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D36" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -1869,11 +1914,11 @@
       <c r="I36" s="17"/>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,13 +1926,13 @@
         <v>24</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -1896,11 +1941,11 @@
       <c r="I37" s="17"/>
       <c r="J37" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1908,13 +1953,13 @@
         <v>25</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -1923,11 +1968,11 @@
       <c r="I38" s="17"/>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,10 +1980,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="17">
         <v>0</v>
@@ -1962,10 +2007,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -1989,10 +2034,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -2011,41 +2056,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="28"/>
+    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>29</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="28"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="28"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
+      <c r="H44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2060,8 +2132,8 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="C1:I1"/>

--- a/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D0848-0548-4A10-9928-4703B18EBEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C95922A-C4BC-4B00-8418-174E44182D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -408,7 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,62 +660,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,8 +1066,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1086,118 +1089,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1211,10 +1214,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1238,47 +1241,51 @@
       <c r="I10" s="20">
         <v>29</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="19">
         <f>SUM(D12:I12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="25">
         <f>(J12/$J$12)*100</f>
@@ -1286,19 +1293,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1313,14 +1320,16 @@
       <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>3</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J42" si="0">SUM(D14:I14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" ref="K14:K42" si="1">(J14/$J$12)*100</f>
@@ -1340,7 +1349,9 @@
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -1367,7 +1378,9 @@
       <c r="D16" s="17">
         <v>0</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1394,14 +1407,16 @@
       <c r="D17" s="17">
         <v>3</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
@@ -1419,20 +1434,22 @@
         <v>41</v>
       </c>
       <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1448,14 +1465,16 @@
       <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="1"/>
@@ -1475,7 +1494,9 @@
       <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -1502,14 +1523,16 @@
       <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17">
+        <v>3</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
@@ -1529,14 +1552,16 @@
       <c r="D22" s="17">
         <v>3</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17">
+        <v>3</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
@@ -1556,14 +1581,16 @@
       <c r="D23" s="17">
         <v>3</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="17">
+        <v>3</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -1583,14 +1610,16 @@
       <c r="D24" s="17">
         <v>3</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="17">
+        <v>3</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="1"/>
@@ -1610,16 +1639,18 @@
       <c r="D25" s="47">
         <v>3</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="48">
+        <v>3</v>
+      </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="48">
+      <c r="J25" s="49">
         <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
-        <v>3</v>
-      </c>
-      <c r="K25" s="49">
+        <v>6</v>
+      </c>
+      <c r="K25" s="50">
         <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
         <v>100</v>
       </c>
@@ -1637,14 +1668,16 @@
       <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17">
+        <v>3</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
@@ -1664,14 +1697,16 @@
       <c r="D27" s="17">
         <v>3</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="17">
+        <v>3</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
@@ -1691,14 +1726,16 @@
       <c r="D28" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="17">
+        <v>3</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
@@ -1718,7 +1755,9 @@
       <c r="D29" s="17">
         <v>0</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1745,14 +1784,16 @@
       <c r="D30" s="17">
         <v>3</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17">
+        <v>3</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
@@ -1772,14 +1813,16 @@
       <c r="D31" s="17">
         <v>3</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="17">
+        <v>3</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
@@ -1799,14 +1842,16 @@
       <c r="D32" s="17">
         <v>3</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17">
+        <v>3</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
@@ -1826,14 +1871,16 @@
       <c r="D33" s="17">
         <v>3</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="17">
+        <v>3</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="1"/>
@@ -1853,14 +1900,16 @@
       <c r="D34" s="17">
         <v>3</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17">
+        <v>3</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
@@ -1880,14 +1929,16 @@
       <c r="D35" s="17">
         <v>3</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="17">
+        <v>3</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
@@ -1907,14 +1958,16 @@
       <c r="D36" s="17">
         <v>3</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="17">
+        <v>3</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="1"/>
@@ -1934,7 +1987,9 @@
       <c r="D37" s="17">
         <v>3</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -1945,7 +2000,7 @@
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,14 +2016,16 @@
       <c r="D38" s="17">
         <v>3</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="17">
+        <v>3</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
@@ -1988,7 +2045,9 @@
       <c r="D39" s="17">
         <v>0</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2015,7 +2074,9 @@
       <c r="D40" s="17">
         <v>0</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
@@ -2042,7 +2103,9 @@
       <c r="D41" s="17">
         <v>0</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -2069,7 +2132,9 @@
       <c r="D42" s="17">
         <v>0</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2092,16 +2157,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="28"/>
+      <c r="D44" s="42"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="28"/>
+      <c r="I44" s="42"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -2121,6 +2186,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2132,16 +2207,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>

--- a/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C95922A-C4BC-4B00-8418-174E44182D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D91053-8F10-4725-8C95-2E08F40E681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="October" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>FEE NOT SUBMITTED</t>
+  </si>
+  <si>
+    <t>20MEEP-04</t>
   </si>
 </sst>
 </file>
@@ -660,6 +663,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,9 +716,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -702,29 +728,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1089,118 +1092,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1214,10 +1217,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1230,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="20">
         <v>15</v>
@@ -1241,16 +1244,16 @@
       <c r="I10" s="20">
         <v>29</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1260,16 +1263,18 @@
       <c r="E11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1279,13 +1284,15 @@
       <c r="E12" s="18">
         <v>3</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <v>3</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="19">
         <f>SUM(D12:I12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K12" s="25">
         <f>(J12/$J$12)*100</f>
@@ -1293,19 +1300,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1323,16 +1330,18 @@
       <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17">
+        <v>3</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="8">
-        <f t="shared" ref="J14:J42" si="0">SUM(D14:I14)</f>
-        <v>6</v>
+        <f t="shared" ref="J14:J43" si="0">SUM(D14:I14)</f>
+        <v>9</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" ref="K14:K42" si="1">(J14/$J$12)*100</f>
+        <f t="shared" ref="K14:K43" si="1">(J14/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1352,17 +1361,19 @@
       <c r="E15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17">
+        <v>3</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1381,17 +1392,19 @@
       <c r="E16" s="17">
         <v>0</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,13 +1423,15 @@
       <c r="E17" s="17">
         <v>3</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17">
+        <v>3</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
@@ -1439,13 +1454,15 @@
       <c r="E18" s="17">
         <v>3</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17">
+        <v>3</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
@@ -1468,13 +1485,15 @@
       <c r="E19" s="17">
         <v>3</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17">
+        <v>3</v>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="1"/>
@@ -1497,7 +1516,9 @@
       <c r="E20" s="17">
         <v>0</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1526,13 +1547,15 @@
       <c r="E21" s="17">
         <v>3</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17">
+        <v>3</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
@@ -1555,7 +1578,9 @@
       <c r="E22" s="17">
         <v>3</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -1565,7 +1590,7 @@
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,13 +1609,15 @@
       <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17">
+        <v>3</v>
+      </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -1613,13 +1640,15 @@
       <c r="E24" s="17">
         <v>3</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17">
+        <v>3</v>
+      </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="1"/>
@@ -1627,30 +1656,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="28">
         <v>12</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="47">
-        <v>3</v>
-      </c>
-      <c r="E25" s="48">
-        <v>3</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="49">
+      <c r="D25" s="30">
+        <v>3</v>
+      </c>
+      <c r="E25" s="31">
+        <v>3</v>
+      </c>
+      <c r="F25" s="17">
+        <v>3</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="32">
         <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
-        <v>6</v>
-      </c>
-      <c r="K25" s="50">
+        <v>9</v>
+      </c>
+      <c r="K25" s="33">
         <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
         <v>100</v>
       </c>
@@ -1671,13 +1702,15 @@
       <c r="E26" s="17">
         <v>3</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="17">
+        <v>3</v>
+      </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
@@ -1700,13 +1733,15 @@
       <c r="E27" s="17">
         <v>3</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="17">
+        <v>3</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
@@ -1729,7 +1764,9 @@
       <c r="E28" s="17">
         <v>3</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1739,7 +1776,7 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,7 +1795,9 @@
       <c r="E29" s="17">
         <v>0</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1787,13 +1826,15 @@
       <c r="E30" s="17">
         <v>3</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17">
+        <v>3</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
@@ -1816,7 +1857,9 @@
       <c r="E31" s="17">
         <v>3</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -1826,7 +1869,7 @@
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,7 +1888,9 @@
       <c r="E32" s="17">
         <v>3</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -1855,7 +1900,7 @@
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,13 +1919,15 @@
       <c r="E33" s="17">
         <v>3</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17">
+        <v>3</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="1"/>
@@ -1903,13 +1950,15 @@
       <c r="E34" s="17">
         <v>3</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17">
+        <v>3</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
@@ -1932,13 +1981,15 @@
       <c r="E35" s="17">
         <v>3</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17">
+        <v>3</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
@@ -1961,7 +2012,9 @@
       <c r="E36" s="17">
         <v>3</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -1971,7 +2024,7 @@
       </c>
       <c r="K36" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,17 +2043,19 @@
       <c r="E37" s="17">
         <v>0</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17">
+        <v>3</v>
+      </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2019,7 +2074,9 @@
       <c r="E38" s="17">
         <v>3</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2029,7 +2086,7 @@
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2037,28 +2094,28 @@
         <v>26</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C39" s="13"/>
       <c r="D39" s="17">
         <v>0</v>
       </c>
       <c r="E39" s="17">
         <v>0</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="17">
+        <v>3</v>
+      </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,10 +2123,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -2077,17 +2134,19 @@
       <c r="E40" s="17">
         <v>0</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,10 +2154,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -2106,7 +2165,9 @@
       <c r="E41" s="17">
         <v>0</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -2124,10 +2185,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -2135,7 +2196,9 @@
       <c r="E42" s="17">
         <v>0</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2148,54 +2211,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="42"/>
+    <row r="43" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>30</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="42"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="34"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
+      <c r="H45" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2207,6 +2291,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>

--- a/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D91053-8F10-4725-8C95-2E08F40E681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230A7A9B-6948-4B9F-B228-AF749FB044A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>22MEEP-14</t>
-  </si>
-  <si>
-    <t>FEE NOT SUBMITTED</t>
   </si>
   <si>
     <t>20MEEP-04</t>
@@ -297,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -377,26 +374,8 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,12 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,70 +636,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1039,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1092,118 +1062,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1217,10 +1187,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1236,24 +1206,20 @@
         <v>9</v>
       </c>
       <c r="G10" s="20">
-        <v>15</v>
-      </c>
-      <c r="H10" s="20">
-        <v>22</v>
-      </c>
-      <c r="I10" s="20">
         <v>29</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1266,15 +1232,17 @@
       <c r="F11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1287,12 +1255,14 @@
       <c r="F12" s="18">
         <v>3</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18">
+        <v>3</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="19">
         <f>SUM(D12:I12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12" s="25">
         <f>(J12/$J$12)*100</f>
@@ -1300,19 +1270,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1333,12 +1303,14 @@
       <c r="F14" s="17">
         <v>3</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17">
+        <v>3</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J43" si="0">SUM(D14:I14)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" ref="K14:K43" si="1">(J14/$J$12)*100</f>
@@ -1364,16 +1336,18 @@
       <c r="F15" s="17">
         <v>3</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17">
+        <v>3</v>
+      </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1369,9 @@
       <c r="F16" s="17">
         <v>3</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="8">
@@ -1404,7 +1380,7 @@
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,12 +1402,14 @@
       <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17">
+        <v>3</v>
+      </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
@@ -1457,12 +1435,14 @@
       <c r="F18" s="17">
         <v>3</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
@@ -1488,12 +1468,14 @@
       <c r="F19" s="17">
         <v>3</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="17">
+        <v>3</v>
+      </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="1"/>
@@ -1519,16 +1501,18 @@
       <c r="F20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="17">
+        <v>3</v>
+      </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,12 +1534,14 @@
       <c r="F21" s="17">
         <v>3</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="17">
+        <v>3</v>
+      </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
@@ -1581,7 +1567,9 @@
       <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="8">
@@ -1590,7 +1578,7 @@
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,12 +1600,14 @@
       <c r="F23" s="17">
         <v>3</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="17">
+        <v>3</v>
+      </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -1643,12 +1633,14 @@
       <c r="F24" s="17">
         <v>3</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="17">
+        <v>3</v>
+      </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="1"/>
@@ -1656,32 +1648,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="45">
         <v>12</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="30">
-        <v>3</v>
-      </c>
-      <c r="E25" s="31">
-        <v>3</v>
-      </c>
-      <c r="F25" s="17">
-        <v>3</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="32">
+      <c r="C25" s="49"/>
+      <c r="D25" s="46">
+        <v>3</v>
+      </c>
+      <c r="E25" s="46">
+        <v>3</v>
+      </c>
+      <c r="F25" s="46">
+        <v>3</v>
+      </c>
+      <c r="G25" s="46">
+        <v>3</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47">
         <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
-        <v>9</v>
-      </c>
-      <c r="K25" s="33">
+        <v>12</v>
+      </c>
+      <c r="K25" s="48">
         <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
         <v>100</v>
       </c>
@@ -1705,12 +1697,14 @@
       <c r="F26" s="17">
         <v>3</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="17">
+        <v>3</v>
+      </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
@@ -1736,12 +1730,14 @@
       <c r="F27" s="17">
         <v>3</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="17">
+        <v>3</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
@@ -1767,7 +1763,9 @@
       <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="8">
@@ -1776,7 +1774,7 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1798,16 +1796,18 @@
       <c r="F29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="17">
+        <v>3</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,12 +1829,14 @@
       <c r="F30" s="17">
         <v>3</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="17">
+        <v>3</v>
+      </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
@@ -1860,16 +1862,18 @@
       <c r="F31" s="17">
         <v>0</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="17">
+        <v>3</v>
+      </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,7 +1895,9 @@
       <c r="F32" s="17">
         <v>0</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="8">
@@ -1900,7 +1906,7 @@
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +1928,9 @@
       <c r="F33" s="17">
         <v>3</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="8">
@@ -1931,7 +1939,7 @@
       </c>
       <c r="K33" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1953,12 +1961,14 @@
       <c r="F34" s="17">
         <v>3</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17">
+        <v>3</v>
+      </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
@@ -1984,7 +1994,9 @@
       <c r="F35" s="17">
         <v>3</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="8">
@@ -1993,7 +2005,7 @@
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,16 +2027,18 @@
       <c r="F36" s="17">
         <v>0</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="17">
+        <v>3</v>
+      </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,7 +2060,9 @@
       <c r="F37" s="17">
         <v>3</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="8">
@@ -2055,7 +2071,7 @@
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,16 +2093,18 @@
       <c r="F38" s="17">
         <v>0</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="17">
+        <v>3</v>
+      </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="17">
@@ -2106,7 +2124,9 @@
       <c r="F39" s="17">
         <v>3</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="8">
@@ -2115,7 +2135,7 @@
       </c>
       <c r="K39" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,7 +2157,9 @@
       <c r="F40" s="17">
         <v>3</v>
       </c>
-      <c r="G40" s="17"/>
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="8">
@@ -2146,7 +2168,7 @@
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2190,9 @@
       <c r="F41" s="17">
         <v>0</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="8">
@@ -2199,7 +2223,9 @@
       <c r="F42" s="17">
         <v>0</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="8">
@@ -2230,7 +2256,9 @@
       <c r="F43" s="17">
         <v>0</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="8">
@@ -2251,16 +2279,16 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="42"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="42"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
@@ -2280,6 +2308,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2291,16 +2329,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>

--- a/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230A7A9B-6948-4B9F-B228-AF749FB044A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="October" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$46</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -290,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -636,55 +635,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -697,6 +647,55 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,12 +1034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1062,118 +1061,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1187,10 +1186,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1208,18 +1207,20 @@
       <c r="G10" s="20">
         <v>29</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="20">
+        <v>30</v>
+      </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1235,14 +1236,16 @@
       <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="24"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1258,11 +1261,13 @@
       <c r="G12" s="18">
         <v>3</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18">
+        <v>3</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="19">
         <f>SUM(D12:I12)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="25">
         <f>(J12/$J$12)*100</f>
@@ -1270,19 +1275,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1306,11 +1311,13 @@
       <c r="G14" s="17">
         <v>3</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="17">
+        <v>3</v>
+      </c>
       <c r="I14" s="17"/>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J43" si="0">SUM(D14:I14)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" ref="K14:K43" si="1">(J14/$J$12)*100</f>
@@ -1339,15 +1346,17 @@
       <c r="G15" s="17">
         <v>3</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1381,9 @@
       <c r="G16" s="17">
         <v>0</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="8">
         <f t="shared" si="0"/>
@@ -1380,7 +1391,7 @@
       </c>
       <c r="K16" s="21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,11 +1416,13 @@
       <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="17">
+        <v>3</v>
+      </c>
       <c r="I17" s="17"/>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="1"/>
@@ -1438,11 +1451,13 @@
       <c r="G18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
       <c r="I18" s="17"/>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="1"/>
@@ -1471,11 +1486,13 @@
       <c r="G19" s="17">
         <v>3</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="17">
+        <v>3</v>
+      </c>
       <c r="I19" s="17"/>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="1"/>
@@ -1504,7 +1521,9 @@
       <c r="G20" s="17">
         <v>3</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
       <c r="I20" s="17"/>
       <c r="J20" s="8">
         <f t="shared" si="0"/>
@@ -1512,7 +1531,7 @@
       </c>
       <c r="K20" s="21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,11 +1556,13 @@
       <c r="G21" s="17">
         <v>3</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17">
+        <v>3</v>
+      </c>
       <c r="I21" s="17"/>
       <c r="J21" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="1"/>
@@ -1570,7 +1591,9 @@
       <c r="G22" s="17">
         <v>0</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="8">
         <f t="shared" si="0"/>
@@ -1578,7 +1601,7 @@
       </c>
       <c r="K22" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,11 +1626,13 @@
       <c r="G23" s="17">
         <v>3</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="17">
+        <v>3</v>
+      </c>
       <c r="I23" s="17"/>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="1"/>
@@ -1636,46 +1661,50 @@
       <c r="G24" s="17">
         <v>3</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="17">
+        <v>3</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
         <v>12</v>
       </c>
-      <c r="K24" s="21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
-        <v>12</v>
-      </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="46">
-        <v>3</v>
-      </c>
-      <c r="E25" s="46">
-        <v>3</v>
-      </c>
-      <c r="F25" s="46">
-        <v>3</v>
-      </c>
-      <c r="G25" s="46">
-        <v>3</v>
-      </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47">
+      <c r="C25" s="32"/>
+      <c r="D25" s="29">
+        <v>3</v>
+      </c>
+      <c r="E25" s="29">
+        <v>3</v>
+      </c>
+      <c r="F25" s="29">
+        <v>3</v>
+      </c>
+      <c r="G25" s="29">
+        <v>3</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30">
         <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
         <v>12</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="31">
         <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,11 +1729,13 @@
       <c r="G26" s="17">
         <v>3</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="H26" s="17">
+        <v>3</v>
+      </c>
       <c r="I26" s="17"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
@@ -1733,7 +1764,9 @@
       <c r="G27" s="17">
         <v>3</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="8">
         <f t="shared" si="0"/>
@@ -1741,7 +1774,7 @@
       </c>
       <c r="K27" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1766,7 +1799,9 @@
       <c r="G28" s="17">
         <v>0</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="8">
         <f t="shared" si="0"/>
@@ -1774,7 +1809,7 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,15 +1834,17 @@
       <c r="G29" s="17">
         <v>3</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="17">
+        <v>3</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,11 +1869,13 @@
       <c r="G30" s="17">
         <v>3</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="17">
+        <v>3</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="1"/>
@@ -1865,7 +1904,9 @@
       <c r="G31" s="17">
         <v>3</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
       <c r="I31" s="17"/>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
@@ -1873,7 +1914,7 @@
       </c>
       <c r="K31" s="21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,7 +1939,9 @@
       <c r="G32" s="17">
         <v>0</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
       <c r="I32" s="17"/>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
@@ -1906,7 +1949,7 @@
       </c>
       <c r="K32" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,7 +1974,9 @@
       <c r="G33" s="17">
         <v>0</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
       <c r="I33" s="17"/>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
@@ -1939,7 +1984,7 @@
       </c>
       <c r="K33" s="21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1964,11 +2009,13 @@
       <c r="G34" s="17">
         <v>3</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="17">
+        <v>3</v>
+      </c>
       <c r="I34" s="17"/>
       <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="1"/>
@@ -1997,7 +2044,9 @@
       <c r="G35" s="17">
         <v>0</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
       <c r="I35" s="17"/>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
@@ -2005,7 +2054,7 @@
       </c>
       <c r="K35" s="21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2030,15 +2079,17 @@
       <c r="G36" s="17">
         <v>3</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="17">
+        <v>3</v>
+      </c>
       <c r="I36" s="17"/>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2114,9 @@
       <c r="G37" s="17">
         <v>0</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
       <c r="I37" s="17"/>
       <c r="J37" s="8">
         <f t="shared" si="0"/>
@@ -2071,7 +2124,7 @@
       </c>
       <c r="K37" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,15 +2149,17 @@
       <c r="G38" s="17">
         <v>3</v>
       </c>
-      <c r="H38" s="17"/>
+      <c r="H38" s="17">
+        <v>3</v>
+      </c>
       <c r="I38" s="17"/>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2182,9 @@
       <c r="G39" s="17">
         <v>0</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
       <c r="I39" s="17"/>
       <c r="J39" s="8">
         <f t="shared" si="0"/>
@@ -2135,7 +2192,7 @@
       </c>
       <c r="K39" s="21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,7 +2217,9 @@
       <c r="G40" s="17">
         <v>0</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
       <c r="I40" s="17"/>
       <c r="J40" s="8">
         <f t="shared" si="0"/>
@@ -2168,7 +2227,7 @@
       </c>
       <c r="K40" s="21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,7 +2252,9 @@
       <c r="G41" s="17">
         <v>0</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
       <c r="I41" s="17"/>
       <c r="J41" s="8">
         <f t="shared" si="0"/>
@@ -2226,7 +2287,9 @@
       <c r="G42" s="17">
         <v>0</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
       <c r="I42" s="17"/>
       <c r="J42" s="8">
         <f t="shared" si="0"/>
@@ -2259,7 +2322,9 @@
       <c r="G43" s="17">
         <v>0</v>
       </c>
-      <c r="H43" s="17"/>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
       <c r="I43" s="17"/>
       <c r="J43" s="8">
         <f t="shared" si="0"/>
@@ -2279,16 +2344,16 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="42"/>
+      <c r="D45" s="33"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="42"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
@@ -2308,16 +2373,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2329,6 +2384,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
